--- a/北京城建·龙樾生态城.xlsx
+++ b/北京城建·龙樾生态城.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F840"/>
+  <dimension ref="A1:F852"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="K300" sqref="K300"/>
@@ -15339,7 +15339,6 @@
       </c>
     </row>
     <row r="831">
-      <c r="A831" s="16" t="n"/>
       <c r="B831" s="16" t="inlineStr">
         <is>
           <t>规划4号楼</t>
@@ -15359,7 +15358,6 @@
       </c>
     </row>
     <row r="832">
-      <c r="A832" s="16" t="n"/>
       <c r="B832" s="16" t="inlineStr">
         <is>
           <t>规划9号楼</t>
@@ -15379,7 +15377,6 @@
       </c>
     </row>
     <row r="833">
-      <c r="A833" s="16" t="n"/>
       <c r="B833" s="16" t="inlineStr">
         <is>
           <t>规划10号楼</t>
@@ -15399,7 +15396,6 @@
       </c>
     </row>
     <row r="834">
-      <c r="A834" s="16" t="n"/>
       <c r="B834" s="16" t="inlineStr">
         <is>
           <t>规划5号楼</t>
@@ -15419,7 +15415,6 @@
       </c>
     </row>
     <row r="835">
-      <c r="A835" s="16" t="n"/>
       <c r="B835" s="16" t="inlineStr">
         <is>
           <t>规划2号楼</t>
@@ -15439,7 +15434,6 @@
       </c>
     </row>
     <row r="836">
-      <c r="A836" s="16" t="n"/>
       <c r="B836" s="16" t="inlineStr">
         <is>
           <t>规划6号楼</t>
@@ -15459,7 +15453,6 @@
       </c>
     </row>
     <row r="837">
-      <c r="A837" s="16" t="n"/>
       <c r="B837" s="16" t="inlineStr">
         <is>
           <t>规划1号楼</t>
@@ -15479,7 +15472,6 @@
       </c>
     </row>
     <row r="838">
-      <c r="A838" s="16" t="n"/>
       <c r="B838" s="16" t="inlineStr">
         <is>
           <t>规划7号楼</t>
@@ -15499,7 +15491,6 @@
       </c>
     </row>
     <row r="839">
-      <c r="A839" s="16" t="n"/>
       <c r="B839" s="16" t="inlineStr">
         <is>
           <t>规划8号楼</t>
@@ -15537,13 +15528,236 @@
         <v>0.2767</v>
       </c>
     </row>
+    <row r="842">
+      <c r="A842" s="16" t="inlineStr">
+        <is>
+          <t>2024/05/24</t>
+        </is>
+      </c>
+      <c r="B842" s="16" t="inlineStr">
+        <is>
+          <t>规划3号楼</t>
+        </is>
+      </c>
+      <c r="C842" s="16" t="n">
+        <v>136</v>
+      </c>
+      <c r="D842" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E842" s="16" t="n">
+        <v>135</v>
+      </c>
+      <c r="F842" s="16" t="n">
+        <v>0.0074</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="16" t="n"/>
+      <c r="B843" s="16" t="inlineStr">
+        <is>
+          <t>规划4号楼</t>
+        </is>
+      </c>
+      <c r="C843" s="16" t="n">
+        <v>136</v>
+      </c>
+      <c r="D843" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E843" s="16" t="n">
+        <v>136</v>
+      </c>
+      <c r="F843" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="16" t="n"/>
+      <c r="B844" s="16" t="inlineStr">
+        <is>
+          <t>规划9号楼</t>
+        </is>
+      </c>
+      <c r="C844" s="16" t="n">
+        <v>51</v>
+      </c>
+      <c r="D844" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E844" s="16" t="n">
+        <v>50</v>
+      </c>
+      <c r="F844" s="16" t="n">
+        <v>0.0196</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="16" t="n"/>
+      <c r="B845" s="16" t="inlineStr">
+        <is>
+          <t>规划10号楼</t>
+        </is>
+      </c>
+      <c r="C845" s="16" t="n">
+        <v>110</v>
+      </c>
+      <c r="D845" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E845" s="16" t="n">
+        <v>108</v>
+      </c>
+      <c r="F845" s="16" t="n">
+        <v>0.0182</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="16" t="n"/>
+      <c r="B846" s="16" t="inlineStr">
+        <is>
+          <t>规划5号楼</t>
+        </is>
+      </c>
+      <c r="C846" s="16" t="n">
+        <v>59</v>
+      </c>
+      <c r="D846" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E846" s="16" t="n">
+        <v>59</v>
+      </c>
+      <c r="F846" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="16" t="n"/>
+      <c r="B847" s="16" t="inlineStr">
+        <is>
+          <t>规划2号楼</t>
+        </is>
+      </c>
+      <c r="C847" s="16" t="n">
+        <v>136</v>
+      </c>
+      <c r="D847" s="16" t="n">
+        <v>43</v>
+      </c>
+      <c r="E847" s="16" t="n">
+        <v>93</v>
+      </c>
+      <c r="F847" s="16" t="n">
+        <v>0.3162</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="16" t="n"/>
+      <c r="B848" s="16" t="inlineStr">
+        <is>
+          <t>规划6号楼</t>
+        </is>
+      </c>
+      <c r="C848" s="16" t="n">
+        <v>59</v>
+      </c>
+      <c r="D848" s="16" t="n">
+        <v>46</v>
+      </c>
+      <c r="E848" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="F848" s="16" t="n">
+        <v>0.7796999999999999</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="16" t="n"/>
+      <c r="B849" s="16" t="inlineStr">
+        <is>
+          <t>规划1号楼</t>
+        </is>
+      </c>
+      <c r="C849" s="16" t="n">
+        <v>143</v>
+      </c>
+      <c r="D849" s="16" t="n">
+        <v>62</v>
+      </c>
+      <c r="E849" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="F849" s="16" t="n">
+        <v>0.4336</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="16" t="n"/>
+      <c r="B850" s="16" t="inlineStr">
+        <is>
+          <t>规划7号楼</t>
+        </is>
+      </c>
+      <c r="C850" s="16" t="n">
+        <v>102</v>
+      </c>
+      <c r="D850" s="16" t="n">
+        <v>78</v>
+      </c>
+      <c r="E850" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="F850" s="16" t="n">
+        <v>0.7647</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="16" t="n"/>
+      <c r="B851" s="16" t="inlineStr">
+        <is>
+          <t>规划8号楼</t>
+        </is>
+      </c>
+      <c r="C851" s="16" t="n">
+        <v>51</v>
+      </c>
+      <c r="D851" s="16" t="n">
+        <v>40</v>
+      </c>
+      <c r="E851" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="F851" s="16" t="n">
+        <v>0.7843</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="16" t="inlineStr">
+        <is>
+          <t>统计</t>
+        </is>
+      </c>
+      <c r="C852" s="16" t="n">
+        <v>983</v>
+      </c>
+      <c r="D852" s="16" t="n">
+        <v>273</v>
+      </c>
+      <c r="E852" s="16" t="n">
+        <v>710</v>
+      </c>
+      <c r="F852" s="16" t="n">
+        <v>0.2777</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="140">
+  <mergeCells count="142">
     <mergeCell ref="A168:B168"/>
     <mergeCell ref="A552:B552"/>
-    <mergeCell ref="A182:A191"/>
     <mergeCell ref="A62:A71"/>
     <mergeCell ref="A830:A839"/>
+    <mergeCell ref="A182:A191"/>
     <mergeCell ref="A156:B156"/>
     <mergeCell ref="A636:B636"/>
     <mergeCell ref="A614:A623"/>
@@ -15577,6 +15791,7 @@
     <mergeCell ref="A602:A611"/>
     <mergeCell ref="A74:A83"/>
     <mergeCell ref="A650:A659"/>
+    <mergeCell ref="A842:A851"/>
     <mergeCell ref="A770:A779"/>
     <mergeCell ref="A590:A599"/>
     <mergeCell ref="A302:A311"/>
@@ -15677,6 +15892,7 @@
     <mergeCell ref="A312:B312"/>
     <mergeCell ref="A468:B468"/>
     <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A852:B852"/>
     <mergeCell ref="A288:B288"/>
     <mergeCell ref="A482:A491"/>
   </mergeCells>

--- a/北京城建·龙樾生态城.xlsx
+++ b/北京城建·龙樾生态城.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F852"/>
+  <dimension ref="A1:F864"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
       <selection activeCell="K300" sqref="K300"/>
@@ -15553,7 +15553,6 @@
       </c>
     </row>
     <row r="843">
-      <c r="A843" s="16" t="n"/>
       <c r="B843" s="16" t="inlineStr">
         <is>
           <t>规划4号楼</t>
@@ -15573,7 +15572,6 @@
       </c>
     </row>
     <row r="844">
-      <c r="A844" s="16" t="n"/>
       <c r="B844" s="16" t="inlineStr">
         <is>
           <t>规划9号楼</t>
@@ -15593,7 +15591,6 @@
       </c>
     </row>
     <row r="845">
-      <c r="A845" s="16" t="n"/>
       <c r="B845" s="16" t="inlineStr">
         <is>
           <t>规划10号楼</t>
@@ -15613,7 +15610,6 @@
       </c>
     </row>
     <row r="846">
-      <c r="A846" s="16" t="n"/>
       <c r="B846" s="16" t="inlineStr">
         <is>
           <t>规划5号楼</t>
@@ -15633,7 +15629,6 @@
       </c>
     </row>
     <row r="847">
-      <c r="A847" s="16" t="n"/>
       <c r="B847" s="16" t="inlineStr">
         <is>
           <t>规划2号楼</t>
@@ -15653,7 +15648,6 @@
       </c>
     </row>
     <row r="848">
-      <c r="A848" s="16" t="n"/>
       <c r="B848" s="16" t="inlineStr">
         <is>
           <t>规划6号楼</t>
@@ -15673,7 +15667,6 @@
       </c>
     </row>
     <row r="849">
-      <c r="A849" s="16" t="n"/>
       <c r="B849" s="16" t="inlineStr">
         <is>
           <t>规划1号楼</t>
@@ -15693,7 +15686,6 @@
       </c>
     </row>
     <row r="850">
-      <c r="A850" s="16" t="n"/>
       <c r="B850" s="16" t="inlineStr">
         <is>
           <t>规划7号楼</t>
@@ -15713,7 +15705,6 @@
       </c>
     </row>
     <row r="851">
-      <c r="A851" s="16" t="n"/>
       <c r="B851" s="16" t="inlineStr">
         <is>
           <t>规划8号楼</t>
@@ -15751,13 +15742,236 @@
         <v>0.2777</v>
       </c>
     </row>
+    <row r="854">
+      <c r="A854" s="16" t="inlineStr">
+        <is>
+          <t>2024/06/03</t>
+        </is>
+      </c>
+      <c r="B854" s="16" t="inlineStr">
+        <is>
+          <t>规划3号楼</t>
+        </is>
+      </c>
+      <c r="C854" s="16" t="n">
+        <v>136</v>
+      </c>
+      <c r="D854" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E854" s="16" t="n">
+        <v>135</v>
+      </c>
+      <c r="F854" s="16" t="n">
+        <v>0.0074</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="16" t="n"/>
+      <c r="B855" s="16" t="inlineStr">
+        <is>
+          <t>规划4号楼</t>
+        </is>
+      </c>
+      <c r="C855" s="16" t="n">
+        <v>136</v>
+      </c>
+      <c r="D855" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E855" s="16" t="n">
+        <v>136</v>
+      </c>
+      <c r="F855" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="16" t="n"/>
+      <c r="B856" s="16" t="inlineStr">
+        <is>
+          <t>规划9号楼</t>
+        </is>
+      </c>
+      <c r="C856" s="16" t="n">
+        <v>51</v>
+      </c>
+      <c r="D856" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E856" s="16" t="n">
+        <v>50</v>
+      </c>
+      <c r="F856" s="16" t="n">
+        <v>0.0196</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="16" t="n"/>
+      <c r="B857" s="16" t="inlineStr">
+        <is>
+          <t>规划10号楼</t>
+        </is>
+      </c>
+      <c r="C857" s="16" t="n">
+        <v>110</v>
+      </c>
+      <c r="D857" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E857" s="16" t="n">
+        <v>108</v>
+      </c>
+      <c r="F857" s="16" t="n">
+        <v>0.0182</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="16" t="n"/>
+      <c r="B858" s="16" t="inlineStr">
+        <is>
+          <t>规划5号楼</t>
+        </is>
+      </c>
+      <c r="C858" s="16" t="n">
+        <v>59</v>
+      </c>
+      <c r="D858" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E858" s="16" t="n">
+        <v>59</v>
+      </c>
+      <c r="F858" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="16" t="n"/>
+      <c r="B859" s="16" t="inlineStr">
+        <is>
+          <t>规划2号楼</t>
+        </is>
+      </c>
+      <c r="C859" s="16" t="n">
+        <v>136</v>
+      </c>
+      <c r="D859" s="16" t="n">
+        <v>43</v>
+      </c>
+      <c r="E859" s="16" t="n">
+        <v>93</v>
+      </c>
+      <c r="F859" s="16" t="n">
+        <v>0.3162</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="16" t="n"/>
+      <c r="B860" s="16" t="inlineStr">
+        <is>
+          <t>规划6号楼</t>
+        </is>
+      </c>
+      <c r="C860" s="16" t="n">
+        <v>59</v>
+      </c>
+      <c r="D860" s="16" t="n">
+        <v>46</v>
+      </c>
+      <c r="E860" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="F860" s="16" t="n">
+        <v>0.7796999999999999</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="16" t="n"/>
+      <c r="B861" s="16" t="inlineStr">
+        <is>
+          <t>规划1号楼</t>
+        </is>
+      </c>
+      <c r="C861" s="16" t="n">
+        <v>143</v>
+      </c>
+      <c r="D861" s="16" t="n">
+        <v>62</v>
+      </c>
+      <c r="E861" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="F861" s="16" t="n">
+        <v>0.4336</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="16" t="n"/>
+      <c r="B862" s="16" t="inlineStr">
+        <is>
+          <t>规划7号楼</t>
+        </is>
+      </c>
+      <c r="C862" s="16" t="n">
+        <v>102</v>
+      </c>
+      <c r="D862" s="16" t="n">
+        <v>78</v>
+      </c>
+      <c r="E862" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="F862" s="16" t="n">
+        <v>0.7647</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="16" t="n"/>
+      <c r="B863" s="16" t="inlineStr">
+        <is>
+          <t>规划8号楼</t>
+        </is>
+      </c>
+      <c r="C863" s="16" t="n">
+        <v>51</v>
+      </c>
+      <c r="D863" s="16" t="n">
+        <v>40</v>
+      </c>
+      <c r="E863" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="F863" s="16" t="n">
+        <v>0.7843</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="16" t="inlineStr">
+        <is>
+          <t>统计</t>
+        </is>
+      </c>
+      <c r="C864" s="16" t="n">
+        <v>983</v>
+      </c>
+      <c r="D864" s="16" t="n">
+        <v>273</v>
+      </c>
+      <c r="E864" s="16" t="n">
+        <v>710</v>
+      </c>
+      <c r="F864" s="16" t="n">
+        <v>0.2777</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="144">
     <mergeCell ref="A168:B168"/>
     <mergeCell ref="A552:B552"/>
-    <mergeCell ref="A62:A71"/>
     <mergeCell ref="A830:A839"/>
     <mergeCell ref="A182:A191"/>
+    <mergeCell ref="A62:A71"/>
     <mergeCell ref="A156:B156"/>
     <mergeCell ref="A636:B636"/>
     <mergeCell ref="A614:A623"/>
@@ -15811,6 +16025,7 @@
     <mergeCell ref="A542:A551"/>
     <mergeCell ref="A470:A479"/>
     <mergeCell ref="A86:A95"/>
+    <mergeCell ref="A854:A863"/>
     <mergeCell ref="A516:B516"/>
     <mergeCell ref="A132:B132"/>
     <mergeCell ref="A314:A323"/>
@@ -15825,6 +16040,7 @@
     <mergeCell ref="A480:B480"/>
     <mergeCell ref="A386:A395"/>
     <mergeCell ref="A98:A107"/>
+    <mergeCell ref="A864:B864"/>
     <mergeCell ref="A744:B744"/>
     <mergeCell ref="A360:B360"/>
     <mergeCell ref="A446:A455"/>
